--- a/app/planilha/Planilha de Gastos - Copia.xlsx
+++ b/app/planilha/Planilha de Gastos - Copia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antony MW\Documents\GitHub\feira_de_ciencias\app\planilha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDE8025-F378-4F29-BE8A-CFFF77A970C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5C8E78-266A-4ECA-AF35-6C09FBE4E111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="714" activeTab="3" xr2:uid="{E8A802A7-720E-4E8A-8B18-1F36DA1E6117}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="714" xr2:uid="{E8A802A7-720E-4E8A-8B18-1F36DA1E6117}"/>
   </bookViews>
   <sheets>
     <sheet name="Instruções" sheetId="18" r:id="rId1"/>
@@ -1776,6 +1776,48 @@
     </xf>
     <xf numFmtId="0" fontId="41" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="43" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="38" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="38" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="38" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="38" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1836,48 +1878,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="38" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="38" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="38" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="38" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hiperlink" xfId="4" builtinId="8"/>
@@ -1887,192 +1887,6 @@
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="109">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF7E7E7E"/>
-        <name val="Nunito Sans"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF7E7E7E"/>
-        <name val="Nunito Sans"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF7E7E7E"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF7E7E7E"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF7E7E7E"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF7E7E7E"/>
-        <name val="Nunito Sans"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="20" formatCode="dd/mmm/yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF7E7E7E"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF7E7E7E"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF7E7E7E"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF7E7E7E"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF7E7E7E"/>
-        <name val="Nunito Sans"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="20" formatCode="dd/mmm/yy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF7E7E7E"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF7E7E7E"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF7E7E7E"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF7E7E7E"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF7E7E7E"/>
-        <name val="Nunito Sans"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF7E7E7E"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF7E7E7E"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF7E7E7E"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF7E7E7E"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF7E7E7E"/>
-        <name val="Nunito Sans"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF7E7E7E"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF7E7E7E"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF7E7E7E"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF7E7E7E"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF7E7E7E"/>
-        <name val="Nunito Sans"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color rgb="FF7E7E7E"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF7E7E7E"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF7E7E7E"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -3807,6 +3621,178 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF7E7E7E"/>
+        <name val="Nunito Sans"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF7E7E7E"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF7E7E7E"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF7E7E7E"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF7E7E7E"/>
+        <name val="Nunito Sans"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="20" formatCode="dd/mmm/yy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF7E7E7E"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF7E7E7E"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF7E7E7E"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF7E7E7E"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF7E7E7E"/>
+        <name val="Nunito Sans"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="20" formatCode="dd/mmm/yy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF7E7E7E"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF7E7E7E"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF7E7E7E"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF7E7E7E"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF7E7E7E"/>
+        <name val="Nunito Sans"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF7E7E7E"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF7E7E7E"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF7E7E7E"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF7E7E7E"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF7E7E7E"/>
+        <name val="Nunito Sans"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF7E7E7E"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF7E7E7E"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF7E7E7E"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF7E7E7E"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF7E7E7E"/>
+        <name val="Nunito Sans"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF7E7E7E"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF7E7E7E"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF7E7E7E"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <top style="thin">
           <color rgb="FF7E7E7E"/>
@@ -3826,6 +3812,20 @@
           <color rgb="FF7E7E7E"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF7E7E7E"/>
+        <name val="Nunito Sans"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -8062,13 +8062,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>409574</xdr:colOff>
       <xdr:row>162</xdr:row>
-      <xdr:rowOff>154896</xdr:rowOff>
+      <xdr:rowOff>168041</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>38320</xdr:colOff>
       <xdr:row>175</xdr:row>
-      <xdr:rowOff>80428</xdr:rowOff>
+      <xdr:rowOff>67283</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8084,15 +8084,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4781549" y="31987446"/>
-          <a:ext cx="6943946" cy="2402032"/>
+          <a:off x="4746250" y="33583982"/>
+          <a:ext cx="6890158" cy="2375742"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8208,15 +8213,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>12326</xdr:rowOff>
+      <xdr:colOff>131884</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>172915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>493059</xdr:colOff>
+      <xdr:colOff>492750</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>79415</xdr:rowOff>
+      <xdr:rowOff>36415</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8231,16 +8236,21 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="18169" t="-686" r="-31" b="568"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="238125" y="3841376"/>
-          <a:ext cx="3407709" cy="2353089"/>
+          <a:off x="236659" y="3906715"/>
+          <a:ext cx="3408866" cy="2340000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8257,15 +8267,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>375398</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>379715</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>116411</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>42023</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>46340</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>106886</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8280,8 +8290,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="3528173" y="5457825"/>
-          <a:ext cx="276225" cy="180975"/>
+          <a:off x="3539387" y="5759152"/>
+          <a:ext cx="277539" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8313,15 +8323,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>71841</xdr:colOff>
+      <xdr:colOff>71034</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>1658</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>488961</xdr:colOff>
+      <xdr:colOff>481093</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>67551</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8337,14 +8347,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:srcRect t="25279" r="38375"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="49" t="436" r="16935"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4443816" y="3857625"/>
-          <a:ext cx="3465120" cy="2362200"/>
+          <a:off x="4441648" y="3925958"/>
+          <a:ext cx="3458059" cy="2351893"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8361,15 +8377,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>537482</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>53068</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>204107</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8384,7 +8400,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5381625" y="4829175"/>
+          <a:off x="5517696" y="5882368"/>
           <a:ext cx="276225" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -8816,15 +8832,21 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect b="28662"/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="6496" b="6496"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8656568" y="3839005"/>
-          <a:ext cx="3485221" cy="1730635"/>
+          <a:off x="8610600" y="3936740"/>
+          <a:ext cx="3465342" cy="1730635"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9530,13 +9552,19 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:srcRect t="26567" r="20785"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="928" r="14471"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1771651" y="8839200"/>
+          <a:off x="1771651" y="8982075"/>
           <a:ext cx="4048124" cy="2109840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9577,14 +9605,20 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:srcRect t="25872" r="21518"/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="8670" r="8670"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6686550" y="8839200"/>
+          <a:off x="6686550" y="8982075"/>
           <a:ext cx="4076700" cy="2164873"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9603,14 +9637,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>46435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>39106</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>86915</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9626,15 +9660,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="771524" y="13525500"/>
-          <a:ext cx="4858757" cy="2952750"/>
+          <a:off x="771524" y="14410135"/>
+          <a:ext cx="4858757" cy="2421730"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10078,14 +10117,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>447674</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>88481</xdr:rowOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>3376</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:rowOff>59251</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10101,15 +10140,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6648449" y="14071181"/>
-          <a:ext cx="4867276" cy="2988094"/>
+          <a:off x="6679745" y="14440555"/>
+          <a:ext cx="4889048" cy="2750089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10210,13 +10254,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>89887</xdr:rowOff>
+      <xdr:rowOff>116120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>103206</xdr:colOff>
       <xdr:row>106</xdr:row>
-      <xdr:rowOff>104048</xdr:rowOff>
+      <xdr:rowOff>77815</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10232,15 +10276,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4810125" y="16339537"/>
-          <a:ext cx="7027881" cy="3252661"/>
+          <a:off x="4762500" y="19461395"/>
+          <a:ext cx="7027881" cy="3200195"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10820,14 +10869,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>390526</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257742</xdr:colOff>
       <xdr:row>112</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304234</xdr:colOff>
       <xdr:row>133</xdr:row>
       <xdr:rowOff>122555</xdr:rowOff>
     </xdr:to>
@@ -10845,15 +10894,20 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4762501" y="22412324"/>
-          <a:ext cx="7096124" cy="3942081"/>
+          <a:off x="5239317" y="24031574"/>
+          <a:ext cx="6142492" cy="3942081"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10869,16 +10923,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>68515</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>235324</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>154763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>62993</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>167245</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10893,16 +10947,21 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="6245" r="7151"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4772025" y="26490865"/>
-          <a:ext cx="7105650" cy="3994978"/>
+          <a:off x="5177118" y="28303939"/>
+          <a:ext cx="6107206" cy="3441482"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12553,176 +12612,176 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{514DAB51-D625-4252-995E-6248D7AF52C4}" name="RECEITAS" displayName="RECEITAS" ref="A5:F52" totalsRowShown="0" headerRowDxfId="108" dataDxfId="0" headerRowBorderDxfId="107" tableBorderDxfId="106" totalsRowBorderDxfId="105">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{514DAB51-D625-4252-995E-6248D7AF52C4}" name="RECEITAS" displayName="RECEITAS" ref="A5:F52" totalsRowShown="0" headerRowDxfId="108" dataDxfId="106" headerRowBorderDxfId="107" tableBorderDxfId="105" totalsRowBorderDxfId="104">
   <autoFilter ref="A5:F52" xr:uid="{7B3DBCEE-0061-4A67-851F-808927257761}"/>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{9BDD2799-EDD1-41A5-83E0-8F30B97428E0}" name="Origem" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{C0676E67-CA30-43D8-A43D-B45309C0A05B}" name="Valor R$" dataDxfId="5" dataCellStyle="Moeda"/>
-    <tableColumn id="16" xr3:uid="{5A1A2774-03F3-425B-909D-376D9DA396E5}" name="Destino" dataDxfId="4" dataCellStyle="Moeda"/>
-    <tableColumn id="13" xr3:uid="{6285361E-CA5B-4308-9621-1C79CBE0B29A}" name="Data" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{EADF78A1-0688-4688-9F89-1B0B19590280}" name="Mês" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{5F447069-117F-44EB-A9C2-8F809407B654}" name="Ano" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{9BDD2799-EDD1-41A5-83E0-8F30B97428E0}" name="Origem" dataDxfId="103"/>
+    <tableColumn id="7" xr3:uid="{C0676E67-CA30-43D8-A43D-B45309C0A05B}" name="Valor R$" dataDxfId="102" dataCellStyle="Moeda"/>
+    <tableColumn id="16" xr3:uid="{5A1A2774-03F3-425B-909D-376D9DA396E5}" name="Destino" dataDxfId="101" dataCellStyle="Moeda"/>
+    <tableColumn id="13" xr3:uid="{6285361E-CA5B-4308-9621-1C79CBE0B29A}" name="Data" dataDxfId="100"/>
+    <tableColumn id="14" xr3:uid="{EADF78A1-0688-4688-9F89-1B0B19590280}" name="Mês" dataDxfId="99"/>
+    <tableColumn id="15" xr3:uid="{5F447069-117F-44EB-A9C2-8F809407B654}" name="Ano" dataDxfId="98"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C091C3EF-1567-47D6-B6E4-EC405B1C15FB}" name="TRANSPORTE" displayName="TRANSPORTE" ref="K1:K10" totalsRowShown="0" headerRowDxfId="48" dataDxfId="46" headerRowBorderDxfId="47" tableBorderDxfId="45" totalsRowBorderDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C091C3EF-1567-47D6-B6E4-EC405B1C15FB}" name="TRANSPORTE" displayName="TRANSPORTE" ref="K1:K10" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38" totalsRowBorderDxfId="37">
   <autoFilter ref="K1:K10" xr:uid="{56C02182-A9D2-45F8-89FB-1144C345234D}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{1D2499BC-8098-4C9F-B3E9-DFEB814C4EC7}" name="Transporte" dataDxfId="43"/>
+    <tableColumn id="1" xr3:uid="{1D2499BC-8098-4C9F-B3E9-DFEB814C4EC7}" name="Transporte" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{38C48220-E39D-4FA8-B8D7-63D1C49B4582}" name="PESSOAIS" displayName="PESSOAIS" ref="L1:L5" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="39" totalsRowBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{38C48220-E39D-4FA8-B8D7-63D1C49B4582}" name="PESSOAIS" displayName="PESSOAIS" ref="L1:L5" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31">
   <autoFilter ref="L1:L5" xr:uid="{67B451E5-723F-4E0C-9FA0-BF0BFCE5B8FF}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{21F5D46F-3DC7-4A6B-95C3-6FA567043DBB}" name="Pessoais" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{21F5D46F-3DC7-4A6B-95C3-6FA567043DBB}" name="Pessoais" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4E665221-E884-43B2-B9E9-3B79ED824497}" name="LAZER" displayName="LAZER" ref="M1:M6" totalsRowShown="0" headerRowDxfId="36" dataDxfId="34" headerRowBorderDxfId="35" tableBorderDxfId="33" totalsRowBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{4E665221-E884-43B2-B9E9-3B79ED824497}" name="LAZER" displayName="LAZER" ref="M1:M6" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
   <autoFilter ref="M1:M6" xr:uid="{E9DA0D7F-00DE-47B3-B5CC-2F483D271F34}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{D28957CC-98A1-4C09-8B26-72FF8902EBE6}" name="Lazer" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{D28957CC-98A1-4C09-8B26-72FF8902EBE6}" name="Lazer" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D89126B5-641C-4DEF-BA42-9D28D3A5D022}" name="FINANCEIROS" displayName="FINANCEIROS" ref="N1:N11" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D89126B5-641C-4DEF-BA42-9D28D3A5D022}" name="FINANCEIROS" displayName="FINANCEIROS" ref="N1:N11" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
   <autoFilter ref="N1:N11" xr:uid="{CF79CF54-7BDC-4040-AC14-B80837BAD654}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{82349A30-7211-4EF4-AF0F-F7E41C5216DD}" name="Financeiros" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{82349A30-7211-4EF4-AF0F-F7E41C5216DD}" name="Financeiros" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{F2311EF8-67A1-4C0C-8CB3-A45B172D8665}" name="INVESTIMENTOS" displayName="INVESTIMENTOS" ref="E1:E6" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{F2311EF8-67A1-4C0C-8CB3-A45B172D8665}" name="INVESTIMENTOS" displayName="INVESTIMENTOS" ref="E1:E6" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="E1:E6" xr:uid="{524A6117-4AB2-4DDD-BA64-ED8B0FE48504}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{FF816CA9-1CF6-45AC-9CE3-D80EF67A43C1}" name="Investimentos" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{FF816CA9-1CF6-45AC-9CE3-D80EF67A43C1}" name="Investimentos" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{876CB226-0BE8-4F70-B88F-3355EE712CF3}" name="FONTE_DESTINO" displayName="FONTE_DESTINO" ref="R1:R5" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{876CB226-0BE8-4F70-B88F-3355EE712CF3}" name="FONTE_DESTINO" displayName="FONTE_DESTINO" ref="R1:R5" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="R1:R5" xr:uid="{BC977840-315B-4933-88D9-932C4DC65E23}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{34B45E9A-7F60-4B18-A0CC-0E844D4CA0A6}" name="Fonte/Destino" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{34B45E9A-7F60-4B18-A0CC-0E844D4CA0A6}" name="Fonte/Destino" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{9A7087E6-45C9-4E2C-A788-DB5378B9C956}" name="OPCOES" displayName="OPCOES" ref="T1:T12" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{9A7087E6-45C9-4E2C-A788-DB5378B9C956}" name="OPCOES" displayName="OPCOES" ref="T1:T12" totalsRowShown="0" headerRowDxfId="5" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2" totalsRowBorderDxfId="1">
   <autoFilter ref="T1:T12" xr:uid="{9E0D970D-C9A4-4F71-834C-3DF26610E8D8}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{CCD1CDE7-856C-4987-89A0-675CD688D22D}" name="Opções" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{CCD1CDE7-856C-4987-89A0-675CD688D22D}" name="Opções" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{0AE40A80-F62D-4C26-97B4-B50D3AFEF8D8}" name="DESPESAS" displayName="DESPESAS" ref="A5:G90" totalsRowShown="0" headerRowDxfId="104" headerRowBorderDxfId="103" tableBorderDxfId="102" totalsRowBorderDxfId="101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{0AE40A80-F62D-4C26-97B4-B50D3AFEF8D8}" name="DESPESAS" displayName="DESPESAS" ref="A5:G90" totalsRowShown="0" headerRowDxfId="97" headerRowBorderDxfId="96" tableBorderDxfId="95" totalsRowBorderDxfId="94">
   <autoFilter ref="A5:G90" xr:uid="{7B3DBCEE-0061-4A67-851F-808927257761}"/>
   <tableColumns count="7">
-    <tableColumn id="17" xr3:uid="{8BA11E9D-F728-4B72-840A-583A29B10A2E}" name="Tipo de Gasto" dataDxfId="100"/>
-    <tableColumn id="2" xr3:uid="{B759E674-9D27-4E47-A33D-0F2D3BF6EFFA}" name="Detalhamento" dataDxfId="99"/>
-    <tableColumn id="7" xr3:uid="{3925C1D8-FE84-4D7A-95BE-D6B1D22140D4}" name="Valor R$" dataDxfId="98" dataCellStyle="Moeda"/>
-    <tableColumn id="16" xr3:uid="{C5A3729F-A366-4B51-8A50-74BBCA4DFF77}" name="Fonte" dataDxfId="97" dataCellStyle="Moeda"/>
-    <tableColumn id="13" xr3:uid="{896B233C-14DE-4A0A-AA90-0D4B2BC55ED9}" name="Data" dataDxfId="96"/>
-    <tableColumn id="14" xr3:uid="{84517A0A-7812-4F33-9178-E0257597DF19}" name="Mês" dataDxfId="95"/>
-    <tableColumn id="15" xr3:uid="{07737EEF-1139-4852-9D7D-57C4E6F76D87}" name="Ano" dataDxfId="94"/>
+    <tableColumn id="17" xr3:uid="{8BA11E9D-F728-4B72-840A-583A29B10A2E}" name="Tipo de Gasto" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{B759E674-9D27-4E47-A33D-0F2D3BF6EFFA}" name="Detalhamento" dataDxfId="92"/>
+    <tableColumn id="7" xr3:uid="{3925C1D8-FE84-4D7A-95BE-D6B1D22140D4}" name="Valor R$" dataDxfId="91" dataCellStyle="Moeda"/>
+    <tableColumn id="16" xr3:uid="{C5A3729F-A366-4B51-8A50-74BBCA4DFF77}" name="Fonte" dataDxfId="90" dataCellStyle="Moeda"/>
+    <tableColumn id="13" xr3:uid="{896B233C-14DE-4A0A-AA90-0D4B2BC55ED9}" name="Data" dataDxfId="89"/>
+    <tableColumn id="14" xr3:uid="{84517A0A-7812-4F33-9178-E0257597DF19}" name="Mês" dataDxfId="88"/>
+    <tableColumn id="15" xr3:uid="{07737EEF-1139-4852-9D7D-57C4E6F76D87}" name="Ano" dataDxfId="87"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{2EBE2877-3817-4BA9-A022-FB49ABCE0164}" name="INVEST" displayName="INVEST" ref="A5:F22" totalsRowShown="0" headerRowDxfId="93" headerRowBorderDxfId="92" tableBorderDxfId="91" totalsRowBorderDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{2EBE2877-3817-4BA9-A022-FB49ABCE0164}" name="INVEST" displayName="INVEST" ref="A5:F22" totalsRowShown="0" headerRowDxfId="86" headerRowBorderDxfId="85" tableBorderDxfId="84" totalsRowBorderDxfId="83">
   <autoFilter ref="A5:F22" xr:uid="{7B3DBCEE-0061-4A67-851F-808927257761}"/>
   <tableColumns count="6">
-    <tableColumn id="17" xr3:uid="{9EF84DCE-C3EF-4942-AAD3-1AC8A5B83AFF}" name="Investimento" dataDxfId="89"/>
-    <tableColumn id="7" xr3:uid="{36004425-7105-47BD-98F3-4D45ACA95D47}" name="Valor R$" dataDxfId="88" dataCellStyle="Moeda"/>
-    <tableColumn id="1" xr3:uid="{4E16F8BC-91C7-415C-96A9-9A26C9D89B98}" name="Fonte" dataDxfId="87" dataCellStyle="Moeda"/>
-    <tableColumn id="13" xr3:uid="{CBD0E6BD-87A5-43CC-A96C-6C9089D6357E}" name="Data" dataDxfId="86"/>
-    <tableColumn id="14" xr3:uid="{E7FDBCA3-BB5B-4761-885F-6129A98BBB73}" name="Mês" dataDxfId="85"/>
-    <tableColumn id="15" xr3:uid="{1BEF7560-EA06-4E7D-92F9-D1E8371202AC}" name="Ano" dataDxfId="84"/>
+    <tableColumn id="17" xr3:uid="{9EF84DCE-C3EF-4942-AAD3-1AC8A5B83AFF}" name="Investimento" dataDxfId="82"/>
+    <tableColumn id="7" xr3:uid="{36004425-7105-47BD-98F3-4D45ACA95D47}" name="Valor R$" dataDxfId="81" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{4E16F8BC-91C7-415C-96A9-9A26C9D89B98}" name="Fonte" dataDxfId="80" dataCellStyle="Moeda"/>
+    <tableColumn id="13" xr3:uid="{CBD0E6BD-87A5-43CC-A96C-6C9089D6357E}" name="Data" dataDxfId="79"/>
+    <tableColumn id="14" xr3:uid="{E7FDBCA3-BB5B-4761-885F-6129A98BBB73}" name="Mês" dataDxfId="78"/>
+    <tableColumn id="15" xr3:uid="{1BEF7560-EA06-4E7D-92F9-D1E8371202AC}" name="Ano" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3BCFB369-0C27-4422-855B-37279C4D7B3B}" name="RECEITA" displayName="RECEITA" ref="D1:D10" totalsRowShown="0" headerRowDxfId="83" headerRowBorderDxfId="82" tableBorderDxfId="81" totalsRowBorderDxfId="80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3BCFB369-0C27-4422-855B-37279C4D7B3B}" name="RECEITA" displayName="RECEITA" ref="D1:D10" totalsRowShown="0" headerRowDxfId="76" headerRowBorderDxfId="75" tableBorderDxfId="74" totalsRowBorderDxfId="73">
   <autoFilter ref="D1:D10" xr:uid="{64B0D055-45C5-4D6A-BDDE-3A54524C67F4}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{11689B8B-1D12-4A34-B1D6-6138E46A418E}" name="Receita" dataDxfId="79"/>
+    <tableColumn id="1" xr3:uid="{11689B8B-1D12-4A34-B1D6-6138E46A418E}" name="Receita" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FF7DB68B-836B-4C5E-B839-F5CBB9B218AD}" name="ALIMENTAÇÃO" displayName="ALIMENTAÇÃO" ref="F1:F6" totalsRowShown="0" headerRowDxfId="78" dataDxfId="76" headerRowBorderDxfId="77" tableBorderDxfId="75" totalsRowBorderDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FF7DB68B-836B-4C5E-B839-F5CBB9B218AD}" name="ALIMENTAÇÃO" displayName="ALIMENTAÇÃO" ref="F1:F6" totalsRowShown="0" headerRowDxfId="71" dataDxfId="69" headerRowBorderDxfId="70" tableBorderDxfId="68" totalsRowBorderDxfId="67">
   <autoFilter ref="F1:F6" xr:uid="{E5A3FF84-493C-4F8F-B881-7A0F6EC4830E}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{F21EB375-D9A8-4601-B806-535BA0E03D02}" name="Alimentação" dataDxfId="73"/>
+    <tableColumn id="1" xr3:uid="{F21EB375-D9A8-4601-B806-535BA0E03D02}" name="Alimentação" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0F1D6DF4-A0C0-49CD-B25F-D1859F8793FF}" name="MORADIA" displayName="MORADIA" ref="G1:G13" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69" totalsRowBorderDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0F1D6DF4-A0C0-49CD-B25F-D1859F8793FF}" name="MORADIA" displayName="MORADIA" ref="G1:G13" totalsRowShown="0" headerRowDxfId="65" dataDxfId="63" headerRowBorderDxfId="64" tableBorderDxfId="62" totalsRowBorderDxfId="61">
   <autoFilter ref="G1:G13" xr:uid="{043107EF-4AE3-431A-B197-3CD72D0BE310}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{9FC625C1-7575-4975-8ABD-21F7D9583A53}" name="Moradia" dataDxfId="67"/>
+    <tableColumn id="1" xr3:uid="{9FC625C1-7575-4975-8ABD-21F7D9583A53}" name="Moradia" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{006460FA-E0EE-49BF-B9DE-9869A7DD10C4}" name="EDUCAÇÃO" displayName="EDUCAÇÃO" ref="H1:H4" totalsRowShown="0" headerRowDxfId="66" dataDxfId="64" headerRowBorderDxfId="65" tableBorderDxfId="63" totalsRowBorderDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{006460FA-E0EE-49BF-B9DE-9869A7DD10C4}" name="EDUCAÇÃO" displayName="EDUCAÇÃO" ref="H1:H4" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56" totalsRowBorderDxfId="55">
   <autoFilter ref="H1:H4" xr:uid="{69262251-5F5B-4043-99F4-52813CBFAE8F}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{2D596109-55D2-49F5-8720-8278288C0207}" name="Educação" dataDxfId="61"/>
+    <tableColumn id="1" xr3:uid="{2D596109-55D2-49F5-8720-8278288C0207}" name="Educação" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{22CC1839-C7C8-48BA-AC29-5C0560EA1F80}" name="PET" displayName="PET" ref="I1:I5" totalsRowShown="0" headerRowDxfId="60" dataDxfId="58" headerRowBorderDxfId="59" tableBorderDxfId="57" totalsRowBorderDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{22CC1839-C7C8-48BA-AC29-5C0560EA1F80}" name="PET" displayName="PET" ref="I1:I5" totalsRowShown="0" headerRowDxfId="53" dataDxfId="51" headerRowBorderDxfId="52" tableBorderDxfId="50" totalsRowBorderDxfId="49">
   <autoFilter ref="I1:I5" xr:uid="{05CA23A6-B09F-489A-80A2-8C9C21A7432C}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{A5DF6D3F-1F67-45FF-975D-1A81FA486E06}" name="Pet" dataDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{A5DF6D3F-1F67-45FF-975D-1A81FA486E06}" name="Pet" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D9884152-1D45-420B-AB93-6C3DC13A88AE}" name="SAÚDE" displayName="SAÚDE" ref="J1:J7" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53" tableBorderDxfId="51" totalsRowBorderDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D9884152-1D45-420B-AB93-6C3DC13A88AE}" name="SAÚDE" displayName="SAÚDE" ref="J1:J7" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
   <autoFilter ref="J1:J7" xr:uid="{217BA77C-8C45-489F-983E-9ECA44369ECE}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{9607686F-F0B3-451F-9BC9-D04CC26FA050}" name="Saúde" dataDxfId="49"/>
+    <tableColumn id="1" xr3:uid="{9607686F-F0B3-451F-9BC9-D04CC26FA050}" name="Saúde" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13028,8 +13087,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A4:V178"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W166" sqref="W166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13068,53 +13127,53 @@
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:22" ht="24.75" x14ac:dyDescent="0.5">
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="151" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="138"/>
-      <c r="K6" s="138"/>
-      <c r="L6" s="138"/>
-      <c r="M6" s="138"/>
-      <c r="N6" s="138"/>
-      <c r="O6" s="138"/>
-      <c r="P6" s="138"/>
-      <c r="Q6" s="138"/>
-      <c r="R6" s="138"/>
-      <c r="S6" s="138"/>
-      <c r="T6" s="138"/>
-      <c r="U6" s="138"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="152"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="152"/>
+      <c r="K6" s="152"/>
+      <c r="L6" s="152"/>
+      <c r="M6" s="152"/>
+      <c r="N6" s="152"/>
+      <c r="O6" s="152"/>
+      <c r="P6" s="152"/>
+      <c r="Q6" s="152"/>
+      <c r="R6" s="152"/>
+      <c r="S6" s="152"/>
+      <c r="T6" s="152"/>
+      <c r="U6" s="152"/>
     </row>
     <row r="8" spans="1:22" ht="24.75" x14ac:dyDescent="0.5">
       <c r="A8" s="25"/>
-      <c r="B8" s="135" t="s">
+      <c r="B8" s="149" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="135"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="135"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="135"/>
-      <c r="J8" s="135"/>
-      <c r="K8" s="135"/>
-      <c r="L8" s="135"/>
-      <c r="M8" s="135"/>
-      <c r="N8" s="135"/>
-      <c r="O8" s="135"/>
-      <c r="P8" s="135"/>
-      <c r="Q8" s="135"/>
-      <c r="R8" s="135"/>
-      <c r="S8" s="135"/>
-      <c r="T8" s="135"/>
-      <c r="U8" s="135"/>
+      <c r="C8" s="149"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="149"/>
+      <c r="J8" s="149"/>
+      <c r="K8" s="149"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="149"/>
+      <c r="N8" s="149"/>
+      <c r="O8" s="149"/>
+      <c r="P8" s="149"/>
+      <c r="Q8" s="149"/>
+      <c r="R8" s="149"/>
+      <c r="S8" s="149"/>
+      <c r="T8" s="149"/>
+      <c r="U8" s="149"/>
       <c r="V8" s="25"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -13236,28 +13295,28 @@
     </row>
     <row r="34" spans="1:22" ht="24.75" x14ac:dyDescent="0.5">
       <c r="A34" s="25"/>
-      <c r="B34" s="136" t="s">
+      <c r="B34" s="150" t="s">
         <v>136</v>
       </c>
-      <c r="C34" s="136"/>
-      <c r="D34" s="136"/>
-      <c r="E34" s="136"/>
-      <c r="F34" s="136"/>
-      <c r="G34" s="136"/>
-      <c r="H34" s="136"/>
-      <c r="I34" s="136"/>
-      <c r="J34" s="136"/>
-      <c r="K34" s="136"/>
-      <c r="L34" s="136"/>
-      <c r="M34" s="136"/>
-      <c r="N34" s="136"/>
-      <c r="O34" s="136"/>
-      <c r="P34" s="136"/>
-      <c r="Q34" s="136"/>
-      <c r="R34" s="136"/>
-      <c r="S34" s="136"/>
-      <c r="T34" s="136"/>
-      <c r="U34" s="136"/>
+      <c r="C34" s="150"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="150"/>
+      <c r="N34" s="150"/>
+      <c r="O34" s="150"/>
+      <c r="P34" s="150"/>
+      <c r="Q34" s="150"/>
+      <c r="R34" s="150"/>
+      <c r="S34" s="150"/>
+      <c r="T34" s="150"/>
+      <c r="U34" s="150"/>
       <c r="V34" s="25"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
@@ -13370,28 +13429,28 @@
     </row>
     <row r="58" spans="1:22" ht="24.75" x14ac:dyDescent="0.5">
       <c r="A58" s="26"/>
-      <c r="B58" s="135" t="s">
+      <c r="B58" s="149" t="s">
         <v>139</v>
       </c>
-      <c r="C58" s="135"/>
-      <c r="D58" s="135"/>
-      <c r="E58" s="135"/>
-      <c r="F58" s="135"/>
-      <c r="G58" s="135"/>
-      <c r="H58" s="135"/>
-      <c r="I58" s="135"/>
-      <c r="J58" s="135"/>
-      <c r="K58" s="135"/>
-      <c r="L58" s="135"/>
-      <c r="M58" s="135"/>
-      <c r="N58" s="135"/>
-      <c r="O58" s="135"/>
-      <c r="P58" s="135"/>
-      <c r="Q58" s="135"/>
-      <c r="R58" s="135"/>
-      <c r="S58" s="135"/>
-      <c r="T58" s="135"/>
-      <c r="U58" s="135"/>
+      <c r="C58" s="149"/>
+      <c r="D58" s="149"/>
+      <c r="E58" s="149"/>
+      <c r="F58" s="149"/>
+      <c r="G58" s="149"/>
+      <c r="H58" s="149"/>
+      <c r="I58" s="149"/>
+      <c r="J58" s="149"/>
+      <c r="K58" s="149"/>
+      <c r="L58" s="149"/>
+      <c r="M58" s="149"/>
+      <c r="N58" s="149"/>
+      <c r="O58" s="149"/>
+      <c r="P58" s="149"/>
+      <c r="Q58" s="149"/>
+      <c r="R58" s="149"/>
+      <c r="S58" s="149"/>
+      <c r="T58" s="149"/>
+      <c r="U58" s="149"/>
       <c r="V58" s="25"/>
     </row>
     <row r="59" spans="1:22" ht="18.75" x14ac:dyDescent="0.4">
@@ -13528,28 +13587,28 @@
     </row>
     <row r="88" spans="1:22" ht="24.75" x14ac:dyDescent="0.5">
       <c r="A88" s="25"/>
-      <c r="B88" s="136" t="s">
+      <c r="B88" s="150" t="s">
         <v>140</v>
       </c>
-      <c r="C88" s="136"/>
-      <c r="D88" s="136"/>
-      <c r="E88" s="136"/>
-      <c r="F88" s="136"/>
-      <c r="G88" s="136"/>
-      <c r="H88" s="136"/>
-      <c r="I88" s="136"/>
-      <c r="J88" s="136"/>
-      <c r="K88" s="136"/>
-      <c r="L88" s="136"/>
-      <c r="M88" s="136"/>
-      <c r="N88" s="136"/>
-      <c r="O88" s="136"/>
-      <c r="P88" s="136"/>
-      <c r="Q88" s="136"/>
-      <c r="R88" s="136"/>
-      <c r="S88" s="136"/>
-      <c r="T88" s="136"/>
-      <c r="U88" s="136"/>
+      <c r="C88" s="150"/>
+      <c r="D88" s="150"/>
+      <c r="E88" s="150"/>
+      <c r="F88" s="150"/>
+      <c r="G88" s="150"/>
+      <c r="H88" s="150"/>
+      <c r="I88" s="150"/>
+      <c r="J88" s="150"/>
+      <c r="K88" s="150"/>
+      <c r="L88" s="150"/>
+      <c r="M88" s="150"/>
+      <c r="N88" s="150"/>
+      <c r="O88" s="150"/>
+      <c r="P88" s="150"/>
+      <c r="Q88" s="150"/>
+      <c r="R88" s="150"/>
+      <c r="S88" s="150"/>
+      <c r="T88" s="150"/>
+      <c r="U88" s="150"/>
       <c r="V88" s="25"/>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
@@ -13658,28 +13717,28 @@
     </row>
     <row r="112" spans="1:22" ht="24.75" x14ac:dyDescent="0.5">
       <c r="A112" s="25"/>
-      <c r="B112" s="135" t="s">
+      <c r="B112" s="149" t="s">
         <v>141</v>
       </c>
-      <c r="C112" s="135"/>
-      <c r="D112" s="135"/>
-      <c r="E112" s="135"/>
-      <c r="F112" s="135"/>
-      <c r="G112" s="135"/>
-      <c r="H112" s="135"/>
-      <c r="I112" s="135"/>
-      <c r="J112" s="135"/>
-      <c r="K112" s="135"/>
-      <c r="L112" s="135"/>
-      <c r="M112" s="135"/>
-      <c r="N112" s="135"/>
-      <c r="O112" s="135"/>
-      <c r="P112" s="135"/>
-      <c r="Q112" s="135"/>
-      <c r="R112" s="135"/>
-      <c r="S112" s="135"/>
-      <c r="T112" s="135"/>
-      <c r="U112" s="135"/>
+      <c r="C112" s="149"/>
+      <c r="D112" s="149"/>
+      <c r="E112" s="149"/>
+      <c r="F112" s="149"/>
+      <c r="G112" s="149"/>
+      <c r="H112" s="149"/>
+      <c r="I112" s="149"/>
+      <c r="J112" s="149"/>
+      <c r="K112" s="149"/>
+      <c r="L112" s="149"/>
+      <c r="M112" s="149"/>
+      <c r="N112" s="149"/>
+      <c r="O112" s="149"/>
+      <c r="P112" s="149"/>
+      <c r="Q112" s="149"/>
+      <c r="R112" s="149"/>
+      <c r="S112" s="149"/>
+      <c r="T112" s="149"/>
+      <c r="U112" s="149"/>
       <c r="V112" s="25"/>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.25">
@@ -13888,28 +13947,28 @@
     </row>
     <row r="161" spans="1:22" ht="24.75" x14ac:dyDescent="0.5">
       <c r="A161" s="25"/>
-      <c r="B161" s="135" t="s">
+      <c r="B161" s="149" t="s">
         <v>142</v>
       </c>
-      <c r="C161" s="135"/>
-      <c r="D161" s="135"/>
-      <c r="E161" s="135"/>
-      <c r="F161" s="135"/>
-      <c r="G161" s="135"/>
-      <c r="H161" s="135"/>
-      <c r="I161" s="135"/>
-      <c r="J161" s="135"/>
-      <c r="K161" s="135"/>
-      <c r="L161" s="135"/>
-      <c r="M161" s="135"/>
-      <c r="N161" s="135"/>
-      <c r="O161" s="135"/>
-      <c r="P161" s="135"/>
-      <c r="Q161" s="135"/>
-      <c r="R161" s="135"/>
-      <c r="S161" s="135"/>
-      <c r="T161" s="135"/>
-      <c r="U161" s="135"/>
+      <c r="C161" s="149"/>
+      <c r="D161" s="149"/>
+      <c r="E161" s="149"/>
+      <c r="F161" s="149"/>
+      <c r="G161" s="149"/>
+      <c r="H161" s="149"/>
+      <c r="I161" s="149"/>
+      <c r="J161" s="149"/>
+      <c r="K161" s="149"/>
+      <c r="L161" s="149"/>
+      <c r="M161" s="149"/>
+      <c r="N161" s="149"/>
+      <c r="O161" s="149"/>
+      <c r="P161" s="149"/>
+      <c r="Q161" s="149"/>
+      <c r="R161" s="149"/>
+      <c r="S161" s="149"/>
+      <c r="T161" s="149"/>
+      <c r="U161" s="149"/>
       <c r="V161" s="25"/>
     </row>
     <row r="162" spans="1:22" x14ac:dyDescent="0.25">
@@ -13978,28 +14037,28 @@
     </row>
     <row r="178" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A178" s="25"/>
-      <c r="B178" s="133" t="s">
+      <c r="B178" s="147" t="s">
         <v>144</v>
       </c>
-      <c r="C178" s="134"/>
-      <c r="D178" s="134"/>
-      <c r="E178" s="134"/>
-      <c r="F178" s="134"/>
-      <c r="G178" s="134"/>
-      <c r="H178" s="134"/>
-      <c r="I178" s="134"/>
-      <c r="J178" s="134"/>
-      <c r="K178" s="134"/>
-      <c r="L178" s="134"/>
-      <c r="M178" s="134"/>
-      <c r="N178" s="134"/>
-      <c r="O178" s="134"/>
-      <c r="P178" s="134"/>
-      <c r="Q178" s="134"/>
-      <c r="R178" s="134"/>
-      <c r="S178" s="134"/>
-      <c r="T178" s="134"/>
-      <c r="U178" s="134"/>
+      <c r="C178" s="148"/>
+      <c r="D178" s="148"/>
+      <c r="E178" s="148"/>
+      <c r="F178" s="148"/>
+      <c r="G178" s="148"/>
+      <c r="H178" s="148"/>
+      <c r="I178" s="148"/>
+      <c r="J178" s="148"/>
+      <c r="K178" s="148"/>
+      <c r="L178" s="148"/>
+      <c r="M178" s="148"/>
+      <c r="N178" s="148"/>
+      <c r="O178" s="148"/>
+      <c r="P178" s="148"/>
+      <c r="Q178" s="148"/>
+      <c r="R178" s="148"/>
+      <c r="S178" s="148"/>
+      <c r="T178" s="148"/>
+      <c r="U178" s="148"/>
       <c r="V178" s="25"/>
     </row>
   </sheetData>
@@ -14028,8 +14087,8 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14089,380 +14148,380 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A6" s="161"/>
-      <c r="B6" s="154"/>
-      <c r="C6" s="162"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="156"/>
+      <c r="A6" s="141"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="136"/>
     </row>
     <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A7" s="161"/>
-      <c r="B7" s="154"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="156"/>
+      <c r="A7" s="141"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="136"/>
     </row>
     <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A8" s="161"/>
-      <c r="B8" s="154"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="156"/>
+      <c r="A8" s="141"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="142"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="136"/>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A9" s="161"/>
-      <c r="B9" s="154"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="156"/>
+      <c r="A9" s="141"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="136"/>
     </row>
     <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A10" s="161"/>
-      <c r="B10" s="154"/>
-      <c r="C10" s="162"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="156"/>
+      <c r="A10" s="141"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="136"/>
     </row>
     <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A11" s="161"/>
-      <c r="B11" s="154"/>
-      <c r="C11" s="162"/>
-      <c r="D11" s="155"/>
-      <c r="E11" s="155"/>
-      <c r="F11" s="156"/>
+      <c r="A11" s="141"/>
+      <c r="B11" s="134"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="136"/>
     </row>
     <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A12" s="161"/>
-      <c r="B12" s="154"/>
-      <c r="C12" s="162"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="156"/>
+      <c r="A12" s="141"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="142"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="136"/>
     </row>
     <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A13" s="161"/>
-      <c r="B13" s="154"/>
-      <c r="C13" s="162"/>
-      <c r="D13" s="155"/>
-      <c r="E13" s="155"/>
-      <c r="F13" s="156"/>
+      <c r="A13" s="141"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="136"/>
     </row>
     <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A14" s="161"/>
-      <c r="B14" s="154"/>
-      <c r="C14" s="162"/>
-      <c r="D14" s="155"/>
-      <c r="E14" s="155"/>
-      <c r="F14" s="156"/>
+      <c r="A14" s="141"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="136"/>
     </row>
     <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A15" s="161"/>
-      <c r="B15" s="154"/>
-      <c r="C15" s="162"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="155"/>
-      <c r="F15" s="156"/>
+      <c r="A15" s="141"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="136"/>
     </row>
     <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A16" s="161"/>
-      <c r="B16" s="154"/>
-      <c r="C16" s="162"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="156"/>
+      <c r="A16" s="141"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="136"/>
     </row>
     <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A17" s="161"/>
-      <c r="B17" s="154"/>
-      <c r="C17" s="162"/>
-      <c r="D17" s="155"/>
-      <c r="E17" s="155"/>
-      <c r="F17" s="156"/>
+      <c r="A17" s="141"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="136"/>
     </row>
     <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A18" s="161"/>
-      <c r="B18" s="154"/>
-      <c r="C18" s="162"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="155"/>
-      <c r="F18" s="156"/>
+      <c r="A18" s="141"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="136"/>
     </row>
     <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A19" s="161"/>
-      <c r="B19" s="154"/>
-      <c r="C19" s="162"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="156"/>
+      <c r="A19" s="141"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="136"/>
     </row>
     <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A20" s="161"/>
-      <c r="B20" s="154"/>
-      <c r="C20" s="162"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="155"/>
-      <c r="F20" s="156"/>
+      <c r="A20" s="141"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="135"/>
+      <c r="F20" s="136"/>
     </row>
     <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A21" s="161"/>
-      <c r="B21" s="154"/>
-      <c r="C21" s="162"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="155"/>
-      <c r="F21" s="156"/>
+      <c r="A21" s="141"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="136"/>
     </row>
     <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A22" s="161"/>
-      <c r="B22" s="154"/>
-      <c r="C22" s="162"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="156"/>
+      <c r="A22" s="141"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="136"/>
     </row>
     <row r="23" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A23" s="161"/>
-      <c r="B23" s="154"/>
-      <c r="C23" s="162"/>
-      <c r="D23" s="155"/>
-      <c r="E23" s="155"/>
-      <c r="F23" s="156"/>
+      <c r="A23" s="141"/>
+      <c r="B23" s="134"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="135"/>
+      <c r="E23" s="135"/>
+      <c r="F23" s="136"/>
     </row>
     <row r="24" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A24" s="161"/>
-      <c r="B24" s="154"/>
-      <c r="C24" s="162"/>
-      <c r="D24" s="155"/>
-      <c r="E24" s="155"/>
-      <c r="F24" s="156"/>
+      <c r="A24" s="141"/>
+      <c r="B24" s="134"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="135"/>
+      <c r="E24" s="135"/>
+      <c r="F24" s="136"/>
     </row>
     <row r="25" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A25" s="161"/>
-      <c r="B25" s="154"/>
-      <c r="C25" s="162"/>
-      <c r="D25" s="155"/>
-      <c r="E25" s="155"/>
-      <c r="F25" s="156"/>
+      <c r="A25" s="141"/>
+      <c r="B25" s="134"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="136"/>
     </row>
     <row r="26" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A26" s="161"/>
-      <c r="B26" s="154"/>
-      <c r="C26" s="162"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="156"/>
+      <c r="A26" s="141"/>
+      <c r="B26" s="134"/>
+      <c r="C26" s="142"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="136"/>
     </row>
     <row r="27" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A27" s="161"/>
-      <c r="B27" s="154"/>
-      <c r="C27" s="162"/>
-      <c r="D27" s="155"/>
-      <c r="E27" s="155"/>
-      <c r="F27" s="156"/>
+      <c r="A27" s="141"/>
+      <c r="B27" s="134"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="136"/>
     </row>
     <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A28" s="161"/>
-      <c r="B28" s="154"/>
-      <c r="C28" s="162"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="156"/>
+      <c r="A28" s="141"/>
+      <c r="B28" s="134"/>
+      <c r="C28" s="142"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="135"/>
+      <c r="F28" s="136"/>
     </row>
     <row r="29" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A29" s="161"/>
-      <c r="B29" s="154"/>
-      <c r="C29" s="162"/>
-      <c r="D29" s="155"/>
-      <c r="E29" s="155"/>
-      <c r="F29" s="156"/>
+      <c r="A29" s="141"/>
+      <c r="B29" s="134"/>
+      <c r="C29" s="142"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="135"/>
+      <c r="F29" s="136"/>
     </row>
     <row r="30" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A30" s="161"/>
-      <c r="B30" s="154"/>
-      <c r="C30" s="162"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="156"/>
+      <c r="A30" s="141"/>
+      <c r="B30" s="134"/>
+      <c r="C30" s="142"/>
+      <c r="D30" s="135"/>
+      <c r="E30" s="135"/>
+      <c r="F30" s="136"/>
     </row>
     <row r="31" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A31" s="161"/>
-      <c r="B31" s="154"/>
-      <c r="C31" s="162"/>
-      <c r="D31" s="155"/>
-      <c r="E31" s="155"/>
-      <c r="F31" s="156"/>
+      <c r="A31" s="141"/>
+      <c r="B31" s="134"/>
+      <c r="C31" s="142"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="135"/>
+      <c r="F31" s="136"/>
     </row>
     <row r="32" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A32" s="161"/>
-      <c r="B32" s="154"/>
-      <c r="C32" s="162"/>
-      <c r="D32" s="155"/>
-      <c r="E32" s="155"/>
-      <c r="F32" s="156"/>
+      <c r="A32" s="141"/>
+      <c r="B32" s="134"/>
+      <c r="C32" s="142"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="135"/>
+      <c r="F32" s="136"/>
     </row>
     <row r="33" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A33" s="161"/>
-      <c r="B33" s="154"/>
-      <c r="C33" s="162"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="156"/>
+      <c r="A33" s="141"/>
+      <c r="B33" s="134"/>
+      <c r="C33" s="142"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="135"/>
+      <c r="F33" s="136"/>
     </row>
     <row r="34" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A34" s="161"/>
-      <c r="B34" s="154"/>
-      <c r="C34" s="162"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="155"/>
-      <c r="F34" s="156"/>
+      <c r="A34" s="141"/>
+      <c r="B34" s="134"/>
+      <c r="C34" s="142"/>
+      <c r="D34" s="135"/>
+      <c r="E34" s="135"/>
+      <c r="F34" s="136"/>
     </row>
     <row r="35" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A35" s="161"/>
-      <c r="B35" s="154"/>
-      <c r="C35" s="162"/>
-      <c r="D35" s="155"/>
-      <c r="E35" s="155"/>
-      <c r="F35" s="156"/>
+      <c r="A35" s="141"/>
+      <c r="B35" s="134"/>
+      <c r="C35" s="142"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="136"/>
     </row>
     <row r="36" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A36" s="161"/>
-      <c r="B36" s="154"/>
-      <c r="C36" s="162"/>
-      <c r="D36" s="155"/>
-      <c r="E36" s="155"/>
-      <c r="F36" s="156"/>
+      <c r="A36" s="141"/>
+      <c r="B36" s="134"/>
+      <c r="C36" s="142"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="135"/>
+      <c r="F36" s="136"/>
     </row>
     <row r="37" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A37" s="161"/>
-      <c r="B37" s="154"/>
-      <c r="C37" s="162"/>
-      <c r="D37" s="155"/>
-      <c r="E37" s="155"/>
-      <c r="F37" s="156"/>
+      <c r="A37" s="141"/>
+      <c r="B37" s="134"/>
+      <c r="C37" s="142"/>
+      <c r="D37" s="135"/>
+      <c r="E37" s="135"/>
+      <c r="F37" s="136"/>
     </row>
     <row r="38" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A38" s="161"/>
-      <c r="B38" s="154"/>
-      <c r="C38" s="162"/>
-      <c r="D38" s="155"/>
-      <c r="E38" s="155"/>
-      <c r="F38" s="156"/>
+      <c r="A38" s="141"/>
+      <c r="B38" s="134"/>
+      <c r="C38" s="142"/>
+      <c r="D38" s="135"/>
+      <c r="E38" s="135"/>
+      <c r="F38" s="136"/>
     </row>
     <row r="39" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A39" s="161"/>
-      <c r="B39" s="154"/>
-      <c r="C39" s="162"/>
-      <c r="D39" s="155"/>
-      <c r="E39" s="155"/>
-      <c r="F39" s="156"/>
+      <c r="A39" s="141"/>
+      <c r="B39" s="134"/>
+      <c r="C39" s="142"/>
+      <c r="D39" s="135"/>
+      <c r="E39" s="135"/>
+      <c r="F39" s="136"/>
     </row>
     <row r="40" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A40" s="161"/>
-      <c r="B40" s="154"/>
-      <c r="C40" s="162"/>
-      <c r="D40" s="155"/>
-      <c r="E40" s="155"/>
-      <c r="F40" s="156"/>
+      <c r="A40" s="141"/>
+      <c r="B40" s="134"/>
+      <c r="C40" s="142"/>
+      <c r="D40" s="135"/>
+      <c r="E40" s="135"/>
+      <c r="F40" s="136"/>
     </row>
     <row r="41" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A41" s="161"/>
-      <c r="B41" s="154"/>
-      <c r="C41" s="162"/>
-      <c r="D41" s="155"/>
-      <c r="E41" s="155"/>
-      <c r="F41" s="156"/>
+      <c r="A41" s="141"/>
+      <c r="B41" s="134"/>
+      <c r="C41" s="142"/>
+      <c r="D41" s="135"/>
+      <c r="E41" s="135"/>
+      <c r="F41" s="136"/>
     </row>
     <row r="42" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A42" s="161"/>
-      <c r="B42" s="154"/>
-      <c r="C42" s="162"/>
-      <c r="D42" s="155"/>
-      <c r="E42" s="155"/>
-      <c r="F42" s="156"/>
+      <c r="A42" s="141"/>
+      <c r="B42" s="134"/>
+      <c r="C42" s="142"/>
+      <c r="D42" s="135"/>
+      <c r="E42" s="135"/>
+      <c r="F42" s="136"/>
     </row>
     <row r="43" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A43" s="161"/>
-      <c r="B43" s="154"/>
-      <c r="C43" s="162"/>
-      <c r="D43" s="155"/>
-      <c r="E43" s="155"/>
-      <c r="F43" s="156"/>
+      <c r="A43" s="141"/>
+      <c r="B43" s="134"/>
+      <c r="C43" s="142"/>
+      <c r="D43" s="135"/>
+      <c r="E43" s="135"/>
+      <c r="F43" s="136"/>
     </row>
     <row r="44" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A44" s="161"/>
-      <c r="B44" s="154"/>
-      <c r="C44" s="162"/>
-      <c r="D44" s="155"/>
-      <c r="E44" s="155"/>
-      <c r="F44" s="156"/>
+      <c r="A44" s="141"/>
+      <c r="B44" s="134"/>
+      <c r="C44" s="142"/>
+      <c r="D44" s="135"/>
+      <c r="E44" s="135"/>
+      <c r="F44" s="136"/>
     </row>
     <row r="45" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A45" s="161"/>
-      <c r="B45" s="154"/>
-      <c r="C45" s="162"/>
-      <c r="D45" s="155"/>
-      <c r="E45" s="155"/>
-      <c r="F45" s="156"/>
+      <c r="A45" s="141"/>
+      <c r="B45" s="134"/>
+      <c r="C45" s="142"/>
+      <c r="D45" s="135"/>
+      <c r="E45" s="135"/>
+      <c r="F45" s="136"/>
     </row>
     <row r="46" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A46" s="161"/>
-      <c r="B46" s="154"/>
-      <c r="C46" s="162"/>
-      <c r="D46" s="155"/>
-      <c r="E46" s="155"/>
-      <c r="F46" s="156"/>
+      <c r="A46" s="141"/>
+      <c r="B46" s="134"/>
+      <c r="C46" s="142"/>
+      <c r="D46" s="135"/>
+      <c r="E46" s="135"/>
+      <c r="F46" s="136"/>
     </row>
     <row r="47" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A47" s="161"/>
-      <c r="B47" s="154"/>
-      <c r="C47" s="162"/>
-      <c r="D47" s="155"/>
-      <c r="E47" s="155"/>
-      <c r="F47" s="156"/>
+      <c r="A47" s="141"/>
+      <c r="B47" s="134"/>
+      <c r="C47" s="142"/>
+      <c r="D47" s="135"/>
+      <c r="E47" s="135"/>
+      <c r="F47" s="136"/>
     </row>
     <row r="48" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A48" s="161"/>
-      <c r="B48" s="154"/>
-      <c r="C48" s="162"/>
-      <c r="D48" s="155"/>
-      <c r="E48" s="155"/>
-      <c r="F48" s="156"/>
+      <c r="A48" s="141"/>
+      <c r="B48" s="134"/>
+      <c r="C48" s="142"/>
+      <c r="D48" s="135"/>
+      <c r="E48" s="135"/>
+      <c r="F48" s="136"/>
     </row>
     <row r="49" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A49" s="161"/>
-      <c r="B49" s="154"/>
-      <c r="C49" s="162"/>
-      <c r="D49" s="155"/>
-      <c r="E49" s="155"/>
-      <c r="F49" s="156"/>
+      <c r="A49" s="141"/>
+      <c r="B49" s="134"/>
+      <c r="C49" s="142"/>
+      <c r="D49" s="135"/>
+      <c r="E49" s="135"/>
+      <c r="F49" s="136"/>
     </row>
     <row r="50" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A50" s="161"/>
-      <c r="B50" s="154"/>
-      <c r="C50" s="162"/>
-      <c r="D50" s="155"/>
-      <c r="E50" s="155"/>
-      <c r="F50" s="156"/>
+      <c r="A50" s="141"/>
+      <c r="B50" s="134"/>
+      <c r="C50" s="142"/>
+      <c r="D50" s="135"/>
+      <c r="E50" s="135"/>
+      <c r="F50" s="136"/>
     </row>
     <row r="51" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A51" s="161"/>
-      <c r="B51" s="154"/>
-      <c r="C51" s="162"/>
-      <c r="D51" s="155"/>
-      <c r="E51" s="155"/>
-      <c r="F51" s="156"/>
+      <c r="A51" s="141"/>
+      <c r="B51" s="134"/>
+      <c r="C51" s="142"/>
+      <c r="D51" s="135"/>
+      <c r="E51" s="135"/>
+      <c r="F51" s="136"/>
     </row>
     <row r="52" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A52" s="163"/>
-      <c r="B52" s="158"/>
-      <c r="C52" s="164"/>
-      <c r="D52" s="159"/>
-      <c r="E52" s="159"/>
-      <c r="F52" s="160"/>
+      <c r="A52" s="143"/>
+      <c r="B52" s="138"/>
+      <c r="C52" s="144"/>
+      <c r="D52" s="139"/>
+      <c r="E52" s="139"/>
+      <c r="F52" s="140"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -14487,8 +14546,8 @@
   <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A81" activeCellId="1" sqref="A82 A81:G90"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15225,94 +15284,94 @@
       <c r="G80" s="45"/>
     </row>
     <row r="81" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A81" s="153"/>
-      <c r="B81" s="165"/>
-      <c r="C81" s="154"/>
-      <c r="D81" s="162"/>
-      <c r="E81" s="155"/>
-      <c r="F81" s="155"/>
-      <c r="G81" s="156"/>
+      <c r="A81" s="133"/>
+      <c r="B81" s="145"/>
+      <c r="C81" s="134"/>
+      <c r="D81" s="142"/>
+      <c r="E81" s="135"/>
+      <c r="F81" s="135"/>
+      <c r="G81" s="136"/>
     </row>
     <row r="82" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A82" s="153"/>
-      <c r="B82" s="165"/>
-      <c r="C82" s="154"/>
-      <c r="D82" s="162"/>
-      <c r="E82" s="155"/>
-      <c r="F82" s="155"/>
-      <c r="G82" s="156"/>
+      <c r="A82" s="133"/>
+      <c r="B82" s="145"/>
+      <c r="C82" s="134"/>
+      <c r="D82" s="142"/>
+      <c r="E82" s="135"/>
+      <c r="F82" s="135"/>
+      <c r="G82" s="136"/>
     </row>
     <row r="83" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A83" s="153"/>
-      <c r="B83" s="165"/>
-      <c r="C83" s="154"/>
-      <c r="D83" s="162"/>
-      <c r="E83" s="155"/>
-      <c r="F83" s="155"/>
-      <c r="G83" s="156"/>
+      <c r="A83" s="133"/>
+      <c r="B83" s="145"/>
+      <c r="C83" s="134"/>
+      <c r="D83" s="142"/>
+      <c r="E83" s="135"/>
+      <c r="F83" s="135"/>
+      <c r="G83" s="136"/>
     </row>
     <row r="84" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A84" s="153"/>
-      <c r="B84" s="165"/>
-      <c r="C84" s="154"/>
-      <c r="D84" s="162"/>
-      <c r="E84" s="155"/>
-      <c r="F84" s="155"/>
-      <c r="G84" s="156"/>
+      <c r="A84" s="133"/>
+      <c r="B84" s="145"/>
+      <c r="C84" s="134"/>
+      <c r="D84" s="142"/>
+      <c r="E84" s="135"/>
+      <c r="F84" s="135"/>
+      <c r="G84" s="136"/>
     </row>
     <row r="85" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A85" s="153"/>
-      <c r="B85" s="165"/>
-      <c r="C85" s="154"/>
-      <c r="D85" s="162"/>
-      <c r="E85" s="155"/>
-      <c r="F85" s="155"/>
-      <c r="G85" s="156"/>
+      <c r="A85" s="133"/>
+      <c r="B85" s="145"/>
+      <c r="C85" s="134"/>
+      <c r="D85" s="142"/>
+      <c r="E85" s="135"/>
+      <c r="F85" s="135"/>
+      <c r="G85" s="136"/>
     </row>
     <row r="86" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A86" s="153"/>
-      <c r="B86" s="165"/>
-      <c r="C86" s="154"/>
-      <c r="D86" s="162"/>
-      <c r="E86" s="155"/>
-      <c r="F86" s="155"/>
-      <c r="G86" s="156"/>
+      <c r="A86" s="133"/>
+      <c r="B86" s="145"/>
+      <c r="C86" s="134"/>
+      <c r="D86" s="142"/>
+      <c r="E86" s="135"/>
+      <c r="F86" s="135"/>
+      <c r="G86" s="136"/>
     </row>
     <row r="87" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A87" s="153"/>
-      <c r="B87" s="165"/>
-      <c r="C87" s="154"/>
-      <c r="D87" s="162"/>
-      <c r="E87" s="155"/>
-      <c r="F87" s="155"/>
-      <c r="G87" s="156"/>
+      <c r="A87" s="133"/>
+      <c r="B87" s="145"/>
+      <c r="C87" s="134"/>
+      <c r="D87" s="142"/>
+      <c r="E87" s="135"/>
+      <c r="F87" s="135"/>
+      <c r="G87" s="136"/>
     </row>
     <row r="88" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A88" s="153"/>
-      <c r="B88" s="165"/>
-      <c r="C88" s="154"/>
-      <c r="D88" s="162"/>
-      <c r="E88" s="155"/>
-      <c r="F88" s="155"/>
-      <c r="G88" s="156"/>
+      <c r="A88" s="133"/>
+      <c r="B88" s="145"/>
+      <c r="C88" s="134"/>
+      <c r="D88" s="142"/>
+      <c r="E88" s="135"/>
+      <c r="F88" s="135"/>
+      <c r="G88" s="136"/>
     </row>
     <row r="89" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A89" s="153"/>
-      <c r="B89" s="165"/>
-      <c r="C89" s="154"/>
-      <c r="D89" s="162"/>
-      <c r="E89" s="155"/>
-      <c r="F89" s="155"/>
-      <c r="G89" s="156"/>
+      <c r="A89" s="133"/>
+      <c r="B89" s="145"/>
+      <c r="C89" s="134"/>
+      <c r="D89" s="142"/>
+      <c r="E89" s="135"/>
+      <c r="F89" s="135"/>
+      <c r="G89" s="136"/>
     </row>
     <row r="90" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A90" s="157"/>
-      <c r="B90" s="166"/>
-      <c r="C90" s="158"/>
-      <c r="D90" s="164"/>
-      <c r="E90" s="159"/>
-      <c r="F90" s="159"/>
-      <c r="G90" s="160"/>
+      <c r="A90" s="137"/>
+      <c r="B90" s="146"/>
+      <c r="C90" s="138"/>
+      <c r="D90" s="144"/>
+      <c r="E90" s="139"/>
+      <c r="F90" s="139"/>
+      <c r="G90" s="140"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -15348,8 +15407,8 @@
   <sheetPr codeName="Planilha9"/>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15409,140 +15468,140 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A6" s="153"/>
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="156"/>
+      <c r="A6" s="133"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="136"/>
     </row>
     <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A7" s="153"/>
-      <c r="B7" s="154"/>
-      <c r="C7" s="154"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="156"/>
+      <c r="A7" s="133"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="136"/>
     </row>
     <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A8" s="153"/>
-      <c r="B8" s="154"/>
-      <c r="C8" s="154"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="156"/>
+      <c r="A8" s="133"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="136"/>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A9" s="153"/>
-      <c r="B9" s="154"/>
-      <c r="C9" s="154"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="156"/>
+      <c r="A9" s="133"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="136"/>
     </row>
     <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A10" s="153"/>
-      <c r="B10" s="154"/>
-      <c r="C10" s="154"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="156"/>
+      <c r="A10" s="133"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="136"/>
     </row>
     <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A11" s="153"/>
-      <c r="B11" s="154"/>
-      <c r="C11" s="154"/>
-      <c r="D11" s="155"/>
-      <c r="E11" s="155"/>
-      <c r="F11" s="156"/>
+      <c r="A11" s="133"/>
+      <c r="B11" s="134"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="136"/>
     </row>
     <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A12" s="153"/>
-      <c r="B12" s="154"/>
-      <c r="C12" s="154"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="156"/>
+      <c r="A12" s="133"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="136"/>
     </row>
     <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A13" s="153"/>
-      <c r="B13" s="154"/>
-      <c r="C13" s="154"/>
-      <c r="D13" s="155"/>
-      <c r="E13" s="155"/>
-      <c r="F13" s="156"/>
+      <c r="A13" s="133"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="136"/>
     </row>
     <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A14" s="153"/>
-      <c r="B14" s="154"/>
-      <c r="C14" s="154"/>
-      <c r="D14" s="155"/>
-      <c r="E14" s="155"/>
-      <c r="F14" s="156"/>
+      <c r="A14" s="133"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="136"/>
     </row>
     <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A15" s="153"/>
-      <c r="B15" s="154"/>
-      <c r="C15" s="154"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="155"/>
-      <c r="F15" s="156"/>
+      <c r="A15" s="133"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="136"/>
     </row>
     <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A16" s="153"/>
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="156"/>
+      <c r="A16" s="133"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="136"/>
     </row>
     <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A17" s="153"/>
-      <c r="B17" s="154"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="155"/>
-      <c r="E17" s="155"/>
-      <c r="F17" s="156"/>
+      <c r="A17" s="133"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="136"/>
     </row>
     <row r="18" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A18" s="153"/>
-      <c r="B18" s="154"/>
-      <c r="C18" s="154"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="155"/>
-      <c r="F18" s="156"/>
+      <c r="A18" s="133"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="136"/>
     </row>
     <row r="19" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A19" s="153"/>
-      <c r="B19" s="154"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="156"/>
+      <c r="A19" s="133"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="136"/>
     </row>
     <row r="20" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A20" s="153"/>
-      <c r="B20" s="154"/>
-      <c r="C20" s="154"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="155"/>
-      <c r="F20" s="156"/>
+      <c r="A20" s="133"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="135"/>
+      <c r="F20" s="136"/>
     </row>
     <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A21" s="153"/>
-      <c r="B21" s="154"/>
-      <c r="C21" s="154"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="155"/>
-      <c r="F21" s="156"/>
+      <c r="A21" s="133"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="136"/>
     </row>
     <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A22" s="157"/>
-      <c r="B22" s="158"/>
-      <c r="C22" s="158"/>
-      <c r="D22" s="159"/>
-      <c r="E22" s="159"/>
-      <c r="F22" s="160"/>
+      <c r="A22" s="137"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="140"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -15568,9 +15627,9 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16466,8 +16525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D7ECDB-AC09-4BC6-A39D-BA32B60D5DC0}">
   <dimension ref="A1:XFC69"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16622,25 +16681,25 @@
       <c r="B10" s="12"/>
       <c r="C10" s="23"/>
       <c r="D10" s="12"/>
-      <c r="F10" s="141" t="str">
+      <c r="F10" s="155" t="str">
         <f>IF(C8="Todos","Resultado - " &amp; C6,"Resultado - " &amp; LEFT(C8,3) &amp; "/" &amp; C6)</f>
         <v>Resultado - 1900</v>
       </c>
-      <c r="G10" s="142"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="142"/>
-      <c r="J10" s="142"/>
-      <c r="K10" s="143"/>
+      <c r="G10" s="156"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="156"/>
+      <c r="J10" s="156"/>
+      <c r="K10" s="157"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="139" t="str">
+      <c r="M10" s="153" t="str">
         <f>IF(C8="Todos","Divisão de Gastos - " &amp; C6,"Divisão de Gastos - " &amp; LEFT(C8,3) &amp; "/" &amp; C6)</f>
         <v>Divisão de Gastos - 1900</v>
       </c>
-      <c r="N10" s="140"/>
-      <c r="O10" s="140"/>
-      <c r="P10" s="140"/>
-      <c r="Q10" s="140"/>
-      <c r="R10" s="140"/>
+      <c r="N10" s="154"/>
+      <c r="O10" s="154"/>
+      <c r="P10" s="154"/>
+      <c r="Q10" s="154"/>
+      <c r="R10" s="154"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
@@ -16666,11 +16725,11 @@
       </c>
     </row>
     <row r="14" spans="2:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="149" t="e">
+      <c r="B14" s="163" t="e">
         <f>D14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C14" s="150"/>
+      <c r="C14" s="164"/>
       <c r="D14" s="123" t="e">
         <f>Auxiliar!F2/Auxiliar!F1</f>
         <v>#DIV/0!</v>
@@ -16694,11 +16753,11 @@
       <c r="M17" s="118"/>
     </row>
     <row r="18" spans="2:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="149" t="e">
+      <c r="B18" s="163" t="e">
         <f>D18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C18" s="150"/>
+      <c r="C18" s="164"/>
       <c r="D18" s="122" t="e">
         <f>Auxiliar!F3/Auxiliar!F1</f>
         <v>#DIV/0!</v>
@@ -16759,24 +16818,24 @@
       <c r="B28" s="19"/>
       <c r="C28" s="20"/>
       <c r="D28" s="21"/>
-      <c r="F28" s="144" t="str">
+      <c r="F28" s="158" t="str">
         <f>IF(C8="Todos","Divisão de Receita - " &amp; C6,"Divisão de Receita - " &amp; LEFT(C8,3) &amp; "/" &amp; C6)</f>
         <v>Divisão de Receita - 1900</v>
       </c>
-      <c r="G28" s="145"/>
-      <c r="H28" s="145"/>
-      <c r="I28" s="145"/>
-      <c r="J28" s="145"/>
-      <c r="K28" s="145"/>
-      <c r="M28" s="146" t="str">
+      <c r="G28" s="159"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="159"/>
+      <c r="J28" s="159"/>
+      <c r="K28" s="159"/>
+      <c r="M28" s="160" t="str">
         <f>IF(C8="Todos","Divisão de Investimentos - " &amp; C6,"Divisão de Investimentos - " &amp; LEFT(C8,3) &amp; "/" &amp; C6)</f>
         <v>Divisão de Investimentos - 1900</v>
       </c>
-      <c r="N28" s="146"/>
-      <c r="O28" s="146"/>
-      <c r="P28" s="146"/>
-      <c r="Q28" s="146"/>
-      <c r="R28" s="146"/>
+      <c r="N28" s="160"/>
+      <c r="O28" s="160"/>
+      <c r="P28" s="160"/>
+      <c r="Q28" s="160"/>
+      <c r="R28" s="160"/>
       <c r="X28" s="13"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.25">
@@ -33244,16 +33303,16 @@
         <v>123</v>
       </c>
       <c r="K50" s="127"/>
-      <c r="L50" s="151"/>
-      <c r="M50" s="152"/>
+      <c r="L50" s="165"/>
+      <c r="M50" s="166"/>
     </row>
     <row r="51" spans="10:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="J51" s="126" t="s">
         <v>124</v>
       </c>
       <c r="K51" s="26"/>
-      <c r="L51" s="151"/>
-      <c r="M51" s="152"/>
+      <c r="L51" s="165"/>
+      <c r="M51" s="166"/>
       <c r="N51" s="12" t="str">
         <f ca="1">Auxiliar!X2 &amp; " - " &amp; Auxiliar!Z2</f>
         <v>Receita - Salário</v>
@@ -33264,11 +33323,11 @@
         <v>49</v>
       </c>
       <c r="K53" s="129"/>
-      <c r="L53" s="147">
+      <c r="L53" s="161">
         <f ca="1">SUMIFS(RECEITAS[Valor R$],RECEITAS[Origem],Auxiliar!Z2)+SUMIFS(DESPESAS[Valor R$],DESPESAS[Detalhamento],Auxiliar!Z2)+SUMIFS(INVEST[Valor R$],INVEST[Investimento],Auxiliar!Z2)</f>
         <v>0</v>
       </c>
-      <c r="M53" s="148"/>
+      <c r="M53" s="162"/>
     </row>
     <row r="69" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E69" s="15"/>
@@ -33461,7 +33520,7 @@
   <dimension ref="A1:AV18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
